--- a/Classifica_Campionato.xlsx
+++ b/Classifica_Campionato.xlsx
@@ -56,22 +56,22 @@
     <t>Pt. Totali</t>
   </si>
   <si>
+    <t>Canile Comunale Di Merate</t>
+  </si>
+  <si>
     <t>Scroto FC</t>
   </si>
   <si>
-    <t>Canile Comunale Di Merate</t>
+    <t>ReAlcolizzati</t>
+  </si>
+  <si>
+    <t>FC Tumori</t>
+  </si>
+  <si>
+    <t>Black Gay United</t>
   </si>
   <si>
     <t>CSKA LA RISSA</t>
-  </si>
-  <si>
-    <t>ReAlcolizzati</t>
-  </si>
-  <si>
-    <t>FC Tumori</t>
-  </si>
-  <si>
-    <t>Black Gay United</t>
   </si>
   <si>
     <t>FC ETTANERA</t>
@@ -272,31 +272,31 @@
         <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
       </c>
       <c r="H5" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="8">
-        <v>703</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6">
@@ -310,31 +310,31 @@
         <v>4</v>
       </c>
       <c r="D6" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6">
         <v>17</v>
       </c>
-      <c r="I6" s="6">
-        <v>13</v>
-      </c>
       <c r="J6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L6" s="8">
-        <v>693</v>
+        <v>772.5</v>
       </c>
     </row>
     <row r="7">
@@ -348,31 +348,31 @@
         <v>4</v>
       </c>
       <c r="D7" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" s="8">
-        <v>751.5</v>
+        <v>807.5</v>
       </c>
     </row>
     <row r="8">
@@ -386,10 +386,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -398,19 +398,19 @@
         <v>4</v>
       </c>
       <c r="H8" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I8" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="K8" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L8" s="8">
-        <v>737.5</v>
+        <v>773.5</v>
       </c>
     </row>
     <row r="9">
@@ -424,31 +424,31 @@
         <v>4</v>
       </c>
       <c r="D9" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
       </c>
       <c r="F9" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="6">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7">
         <v>16</v>
       </c>
-      <c r="I9" s="6">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6">
-        <v>-5</v>
-      </c>
-      <c r="K9" s="7">
-        <v>14</v>
-      </c>
       <c r="L9" s="8">
-        <v>701</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10">
@@ -462,31 +462,31 @@
         <v>4</v>
       </c>
       <c r="D10" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
-        <v>4</v>
-      </c>
       <c r="G10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="6">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="K10" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" s="8">
-        <v>664.5</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
@@ -509,22 +509,22 @@
         <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11" s="6">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="K11" s="7">
         <v>12</v>
       </c>
       <c r="L11" s="8">
-        <v>683</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -547,22 +547,22 @@
         <v>2</v>
       </c>
       <c r="G12" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="6">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="K12" s="7">
         <v>8</v>
       </c>
       <c r="L12" s="8">
-        <v>662.5</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
